--- a/ARI_results.xlsx
+++ b/ARI_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anconda_new\anzhuang\demo\R-Clustering\github_submited\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anconda_new\anzhuang\demo\R-Clustering\github_submited_iot_revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DAC631-14F9-480B-BAC5-F1F8D362141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFAC979-EDDE-4611-BE86-9AAD55CD11F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,6 +389,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,12 +436,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -746,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.36337874878862297</v>
+        <v>0.37169999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -754,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.51571927504848403</v>
+        <v>0.51249999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.34232177169658101</v>
+        <v>0.3952</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.49054263207024801</v>
+        <v>0.49940000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -778,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.26686802509219398</v>
+        <v>0.55169999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -794,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.57257401095723903</v>
+        <v>3.2300000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -802,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1.33786589392712E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -810,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.58580005907605703</v>
+        <v>0.94630000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -818,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.47967364212508001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -826,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.132600769858498</v>
+        <v>0.19209999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.32684556775222201</v>
+        <v>0.2888</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -842,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.72551135385118504</v>
+        <v>0.76100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -850,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.361266264229536</v>
+        <v>0.46410000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -858,7 +864,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>8.3237142962638705E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -866,7 +872,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0.267176349834787</v>
+        <v>0.2041</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -874,7 +880,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>-4.7146766715601201E-4</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -882,7 +888,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0.88202294101329703</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -890,7 +896,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1.9548722245820601E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -898,7 +904,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0.241574438375667</v>
+        <v>0.28320000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -906,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>9.9603112529797894E-2</v>
+        <v>0.16930000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -914,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>-1.63433899780729E-2</v>
+        <v>-6.1800000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -922,7 +928,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0.22272496537446501</v>
+        <v>0.31769999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -930,7 +936,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>3.5700645931821501E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -938,7 +944,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0.65378320690551905</v>
+        <v>0.55010000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -946,7 +952,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>0.54020207166505996</v>
+        <v>0.55489999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -954,7 +960,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.64317991908376504</v>
+        <v>0.61619999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -962,7 +968,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>0.16793495024746399</v>
+        <v>0.98140000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -970,7 +976,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0.20088859770245299</v>
+        <v>0.88529999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -978,7 +984,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>0.81874748970474298</v>
+        <v>0.79479999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -986,7 +992,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>-5.0454544204673601E-3</v>
+        <v>0.2472</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -994,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>-1.8232127551696001E-3</v>
+        <v>0.52470000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1002,7 +1008,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>-1.6185951673926501E-3</v>
+        <v>0.53759999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1010,7 +1016,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>5.21E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1018,7 +1024,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>2.27682646584496E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1026,7 +1032,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>7.6073762391400707E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1034,7 +1040,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>0.60555876546931797</v>
+        <v>8.9200000000000002E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1042,7 +1048,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>2.2415546150416198E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1050,7 +1056,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>0.58009886176859704</v>
+        <v>0.43590000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1058,7 +1064,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>0.62843968321728005</v>
+        <v>0.40329999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1066,7 +1072,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>0.86809636950279001</v>
+        <v>0.87529999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1074,7 +1080,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>0.55003870837694602</v>
+        <v>0.4093</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1082,7 +1088,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>-5.3966294249435899E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1090,7 +1096,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>0.252104191497101</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1098,7 +1104,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>0.664377156449386</v>
+        <v>0.57420000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1106,7 +1112,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>0.566563630625182</v>
+        <v>0.72529999999999994</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1114,7 +1120,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>0.53722449019927698</v>
+        <v>0.54569999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1122,7 +1128,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>0.63874173754002295</v>
+        <v>0.63859999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1130,7 +1136,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>0.67558301749512795</v>
+        <v>0.63119999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1138,7 +1144,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>-6.9577239448426502E-4</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1146,7 +1152,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>0.12831104557837</v>
+        <v>6.4100000000000004E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1154,7 +1160,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>0.777068393910196</v>
+        <v>0.67230000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1162,7 +1168,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>0.36356585915626499</v>
+        <v>0.39369999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1170,7 +1176,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>0.50422638189195901</v>
+        <v>0.2319</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1178,7 +1184,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>0.50887396053801504</v>
+        <v>0.57169999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1186,7 +1192,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>2.27951705080125E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1194,7 +1200,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>0.25801494479675702</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1202,7 +1208,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>2.9593835123165602E-3</v>
+        <v>3.3599999999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1210,7 +1216,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>0.152915224270811</v>
+        <v>7.7499999999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1218,7 +1224,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>8.5617246881561596E-2</v>
+        <v>0.2228</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1226,7 +1232,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>0.55087263553959098</v>
+        <v>0.52090000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1234,7 +1240,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>0.13524470405549299</v>
+        <v>0.1573</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1242,7 +1248,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>0.42842979426133898</v>
+        <v>0.22650000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1250,7 +1256,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>0.888242310325419</v>
+        <v>0.84519999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1258,7 +1264,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>0.48792913730128601</v>
+        <v>0.37390000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1266,7 +1272,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>0.45828024620952601</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1274,7 +1280,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>0.93209360400306096</v>
+        <v>0.96120000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1282,7 +1288,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>0.14951348435869699</v>
+        <v>9.2799999999999994E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1290,7 +1296,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>0.99312242934490402</v>
+        <v>0.98970000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1298,7 +1304,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>0.97183226900297504</v>
+        <v>0.99680000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1306,7 +1312,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>0.54962624225881396</v>
+        <v>0.47870000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1314,7 +1320,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>0.76595921801322497</v>
+        <v>0.72060000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1322,7 +1328,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>0.55944110676869196</v>
+        <v>0.59050000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1330,7 +1336,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>0.43885935857486902</v>
+        <v>0.47070000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1338,7 +1344,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>1.44908877109747E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1346,7 +1352,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>5.9419760442571398E-2</v>
+        <v>8.77E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1356,7 +1362,7 @@
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="3">
         <v>5.3484989566651799E-2</v>
       </c>
     </row>
@@ -1364,7 +1370,7 @@
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="3">
         <v>6.6320995081358594E-2</v>
       </c>
     </row>
@@ -1372,7 +1378,7 @@
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="3">
         <v>0.50341466233833598</v>
       </c>
     </row>
@@ -1380,7 +1386,7 @@
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="3">
         <v>0.22121873218522001</v>
       </c>
     </row>
@@ -1388,7 +1394,7 @@
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="3">
         <v>0.243517326522845</v>
       </c>
     </row>
@@ -1396,7 +1402,7 @@
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="3">
         <v>0.21865423030181799</v>
       </c>
     </row>
@@ -1404,7 +1410,7 @@
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="3">
         <v>0.27214936958397401</v>
       </c>
     </row>
@@ -1412,7 +1418,7 @@
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="3">
         <v>0.22277035911650001</v>
       </c>
     </row>
@@ -1420,7 +1426,7 @@
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="3">
         <v>0.32836952540532899</v>
       </c>
     </row>
@@ -1428,7 +1434,7 @@
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="3">
         <v>0.28280031377603798</v>
       </c>
     </row>
@@ -1436,7 +1442,7 @@
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="3">
         <v>0.57775146874516603</v>
       </c>
     </row>
@@ -1444,7 +1450,7 @@
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="3">
         <v>8.7468211791441803E-4</v>
       </c>
     </row>
@@ -1452,7 +1458,7 @@
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="3">
         <v>4.6843438309943398E-2</v>
       </c>
     </row>
@@ -1460,7 +1466,7 @@
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="3">
         <v>0.107194622365806</v>
       </c>
     </row>
@@ -1468,7 +1474,7 @@
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="3">
         <v>9.3466862854074402E-4</v>
       </c>
     </row>
@@ -1476,7 +1482,7 @@
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="3">
         <v>0.346534978962175</v>
       </c>
     </row>
@@ -1484,7 +1490,7 @@
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="3">
         <v>0.361625146261077</v>
       </c>
     </row>
@@ -1492,7 +1498,7 @@
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="3">
         <v>1.39126726337695E-2</v>
       </c>
     </row>
@@ -1500,7 +1506,7 @@
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="3">
         <v>4.4944332033176701E-2</v>
       </c>
     </row>
@@ -1508,7 +1514,7 @@
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>0.27979535668859201</v>
       </c>
     </row>
@@ -1516,7 +1522,7 @@
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="3">
         <v>0.614315384599183</v>
       </c>
     </row>
@@ -1524,7 +1530,7 @@
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="3">
         <v>8.4887340881995704E-2</v>
       </c>
     </row>
@@ -1532,7 +1538,7 @@
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="3">
         <v>0.40782413387501398</v>
       </c>
     </row>
@@ -1540,7 +1546,7 @@
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="3">
         <v>0.39076842827059199</v>
       </c>
     </row>
@@ -1548,7 +1554,7 @@
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="3">
         <v>0.47123761482156301</v>
       </c>
     </row>
@@ -1556,7 +1562,7 @@
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="3">
         <v>7.2278133153677301E-2</v>
       </c>
     </row>
@@ -1564,7 +1570,7 @@
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="3">
         <v>0.94928669640331598</v>
       </c>
     </row>
@@ -1572,7 +1578,7 @@
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="3">
         <v>4.1772999248075697E-2</v>
       </c>
     </row>
@@ -1580,7 +1586,7 @@
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="3">
         <v>0.39302598206620398</v>
       </c>
     </row>
@@ -1588,7 +1594,7 @@
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="3">
         <v>1.4390766209258299E-2</v>
       </c>
     </row>
@@ -1596,7 +1602,7 @@
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="3">
         <v>0.99602000804038704</v>
       </c>
     </row>
@@ -1604,7 +1610,7 @@
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="3">
         <v>2.7245837387117899E-2</v>
       </c>
     </row>
@@ -1612,7 +1618,7 @@
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="3">
         <v>0.63723360677556795</v>
       </c>
     </row>
@@ -1620,7 +1626,7 @@
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="3">
         <v>0.81708893465932497</v>
       </c>
     </row>
@@ -1628,7 +1634,7 @@
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="3">
         <v>9.9411972959871406E-2</v>
       </c>
     </row>
@@ -1636,7 +1642,7 @@
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="3">
         <v>0.92191928049031502</v>
       </c>
     </row>
@@ -1644,7 +1650,7 @@
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="3">
         <v>0.33277838004531801</v>
       </c>
     </row>
@@ -1652,7 +1658,7 @@
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="3">
         <v>9.2601093518922609E-3</v>
       </c>
     </row>
@@ -1660,7 +1666,7 @@
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="3">
         <v>0.216557187133636</v>
       </c>
     </row>
@@ -1668,7 +1674,7 @@
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="3">
         <v>0.15371110340715999</v>
       </c>
     </row>
@@ -1676,12 +1682,16 @@
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="3">
         <v>2.29668658635816E-3</v>
       </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>